--- a/csv/svm/svm_pc15polynomial_final.xlsx
+++ b/csv/svm/svm_pc15polynomial_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.21759259259259262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.045360921162651446</v>
+        <v>0.07118196701400953</v>
       </c>
     </row>
   </sheetData>
@@ -146,7 +146,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -155,13 +155,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -198,13 +198,13 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -215,7 +215,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -224,13 +224,13 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -244,13 +244,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" t="n">
         <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -273,10 +273,10 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/svm/svm_pc15polynomial_final.xlsx
+++ b/csv/svm/svm_pc15polynomial_final.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+  <si>
+    <t>filename</t>
+  </si>
   <si>
     <t>tst_err_mean</t>
   </si>
@@ -22,6 +25,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>pc15</t>
   </si>
   <si>
     <t>2</t>
@@ -95,16 +101,22 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.21759259259259262</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07118196701400953</v>
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04303314829119352</v>
       </c>
     </row>
   </sheetData>
@@ -123,30 +135,30 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -155,18 +167,18 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -189,7 +201,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -201,10 +213,10 @@
         <v>27.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -212,10 +224,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -224,10 +236,10 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -235,7 +247,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -244,13 +256,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>7.0</v>
       </c>
-      <c r="E6" t="n">
-        <v>6.0</v>
-      </c>
       <c r="F6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -258,22 +270,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
         <v>25.0</v>
